--- a/JUNIO/METAS FRANJAS JUNIO.xlsx
+++ b/JUNIO/METAS FRANJAS JUNIO.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\balvin\dev\electrocreditos\JUNIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerente Financiera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B6CC0-D934-4E3F-8DF9-727892C03745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0971DCF-6E0A-463D-B8CF-5AA2C9C0B79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{F19A1A2C-D812-49D1-9960-6172D3B1CF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F19A1A2C-D812-49D1-9960-6172D3B1CF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="% METAS" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>REGIONAL</t>
   </si>
@@ -118,6 +128,9 @@
   </si>
   <si>
     <t>206</t>
+  </si>
+  <si>
+    <t>META</t>
   </si>
   <si>
     <t>1 A 30</t>
@@ -140,7 +153,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -199,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -306,38 +319,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -345,25 +332,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,576 +670,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D345A85C-376E-4EF1-8011-3E158ACA4351}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.68359375" customWidth="1"/>
+    <col min="3" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C3" s="9">
         <v>0.7329649137093992</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="5">
         <v>0.39218002130840346</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <v>0.26918079641278686</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F3" s="9">
         <v>0.14076822040021836</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="5">
         <v>0.18743737762420881</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="10">
         <v>0.8336475452646348</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="6">
         <v>0.52160559098307968</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="6">
         <v>0.22254631910951775</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F4" s="10">
         <v>0.12842772335204894</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G4" s="6">
         <v>0.20234527774443012</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="8">
         <v>0.71082074958192509</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>0.47416830588952719</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>0.20548052834393848</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="8">
         <v>0.13089101193494374</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>0.17997095407300637</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="9">
         <v>0.71561888564864917</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>0.43774364958589168</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>0.23119650797950453</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="9">
         <v>0.10895287324514571</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <v>0.19596724205079241</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.80117487744932314</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.49864021924720803</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.35346448788639329</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.12033083396908598</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.21684052891783689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
-        <v>0.65791906887782481</v>
+        <v>0.80117487744932314</v>
       </c>
       <c r="D7" s="6">
-        <v>0.45534582990716216</v>
+        <v>0.49864021924720803</v>
       </c>
       <c r="E7" s="6">
-        <v>0.26834791251807816</v>
+        <v>0.35346448788639329</v>
       </c>
       <c r="F7" s="10">
-        <v>0.14877963218189891</v>
+        <v>0.12033083396908598</v>
       </c>
       <c r="G7" s="6">
-        <v>0.19911289679797312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>0.21684052891783689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.65791906887782481</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.45534582990716216</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.26834791251807816</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.14877963218189891</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.19911289679797312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" s="10">
         <v>0.74339386491232828</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>0.40289679333347794</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>0.19343514154096536</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>0.1057416272668019</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>0.1702943586777293</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>0.62078412597372945</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>0.47304731476585254</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>0.20304699554387609</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>7.0811738361477028E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>0.2015976415334072</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="9">
         <v>0.74093689104041516</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>0.52059232645361053</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>0.18846248572108465</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>0.10702938815691235</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>0.22869029400684154</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.6918878634470621</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.45097940048569335</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.21062968730293802</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.11868552864985676</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.20049234819668954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10">
-        <v>0.7361111390646311</v>
+        <v>0.6918878634470621</v>
       </c>
       <c r="D12" s="6">
-        <v>0.43859363834597015</v>
+        <v>0.45097940048569335</v>
       </c>
       <c r="E12" s="6">
-        <v>0.21621094589220644</v>
+        <v>0.21062968730293802</v>
       </c>
       <c r="F12" s="10">
-        <v>0.11710575556651245</v>
+        <v>0.11868552864985676</v>
       </c>
       <c r="G12" s="6">
-        <v>0.21730029424272734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>0.20049234819668954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.7361111390646311</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.43859363834597015</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.21621094589220644</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.11710575556651245</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.21730029424272734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C14" s="10">
         <v>0.74211639637227367</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>0.47689065845615791</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>0.16593342096808888</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>0.1004950036277438</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>0.19630647150147415</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C15" s="8">
         <v>0.75413286432110882</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>0.48601827916922868</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>0.17694413134208403</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>8.8180318437068375E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>0.20654093998918285</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C16" s="11">
         <v>0.67428806767056026</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>0.41355265816615067</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>0.21349821831145219</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>8.9104288915667212E-2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <v>0.16662388586704319</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.68203597857921561</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.47331168915836669</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.17067264939604604</v>
-      </c>
-      <c r="F16" s="10">
-        <v>9.6795191078399345E-2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.17809917458023333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.68203597857921561</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.47331168915836669</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.17067264939604604</v>
+      </c>
+      <c r="F17" s="10">
+        <v>9.6795191078399345E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.17809917458023333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C18" s="10">
         <v>0.71710591779037836</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>0.44173020628690163</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>0.30129556990621775</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>0.10973978646427088</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>0.24749695916204825</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C19" s="8">
         <v>0.69355063479670609</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>0.46199894530306229</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>0.17395700683750107</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>0.10947069136176919</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>0.19211200847445128</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="9">
         <v>0.62885757522333574</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>0.41218678214510868</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>0.17537121761904095</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>9.1774049449548659E-2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>0.14430244653193158</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C21" s="10">
         <v>0.76289868398541028</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>0.4633572406313568</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>0.23089413701177094</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>0.10543609732410121</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>0.19418728751196473</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C22" s="8">
         <v>0.67220617415757478</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>0.41771570827906851</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>0.1374291194272379</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>9.5992334655325584E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>0.15818868674211153</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C23" s="9">
         <v>0.82007551643829601</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>0.51214881831818404</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>0.42504003616273389</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>0.21142258986566165</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="5">
         <v>0.28614272199842844</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="10">
         <v>0.75959497351269956</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>0.49439458737307262</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>0.27543630930912011</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>0.10467696554898499</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <v>0.22553416860644132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C25" s="8">
         <v>0.82798887308198021</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>0.47293844073558317</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>0.30517955063121011</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>6.3431399401135763E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>0.21561356771147994</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
